--- a/data_csv/TypeEquipement.xlsx
+++ b/data_csv/TypeEquipement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\MaisonEconome\data_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3006055B-95E0-4AE4-89E1-12CFF6E69A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C36D4-1D1F-415B-875F-317631CBE32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{C547BA73-3D90-46EE-AA11-2D94F20C4658}"/>
+    <workbookView xWindow="13728" yWindow="12048" windowWidth="17280" windowHeight="8964" xr2:uid="{C547BA73-3D90-46EE-AA11-2D94F20C4658}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Loisir</t>
   </si>
   <si>
-    <t>Autre</t>
+    <t>Chauffage</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
